--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97781.07979584679</v>
+        <v>90137.01794181655</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3535070.014001244</v>
+        <v>3535070.014001246</v>
       </c>
     </row>
     <row r="11">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="U8" t="n">
-        <v>119.08391054246</v>
+        <v>104.8891084057996</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="X8" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.8891084057988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>104.8891084057988</v>
+        <v>119.083910542461</v>
       </c>
       <c r="V9" t="n">
-        <v>119.08391054246</v>
+        <v>119.083910542461</v>
       </c>
       <c r="W9" t="n">
-        <v>119.08391054246</v>
+        <v>119.083910542461</v>
       </c>
       <c r="X9" t="n">
-        <v>119.08391054246</v>
+        <v>65.52873313770768</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>91.32747982963552</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.56162857616406</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>104.8891084057988</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>306.1801724592084</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>200.9239627322186</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>18.84333618152623</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>56.48620893916107</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>328.6280627484296</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>122.1682864570581</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>82.17043591154993</v>
       </c>
       <c r="E16" t="n">
-        <v>53.19117033386421</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1849,19 +1849,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>304.6279919443823</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>166.7688627778419</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>89.30668535812342</v>
       </c>
       <c r="G19" t="n">
-        <v>51.27008826798717</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>250.8570494538689</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>144.7206738996445</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>49.34995949258617</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>86.38976318987905</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>217.002861658719</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>330.7211180815051</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>25.49356496103073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2493,10 +2493,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>129.2558279457862</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>382.7221170155188</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>149.6157531058528</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2718,19 +2718,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>41.55910715361583</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2794,16 +2794,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>223.6746354651186</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>74.4281100935485</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>116.0945642967139</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3031,16 +3031,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>252.4843751595153</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>100.9386117200766</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3189,25 +3189,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>53.1911703338642</v>
+        <v>37.42187080897107</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>187.1577516233127</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>347.3207662723232</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -3325,7 +3325,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3429,22 +3429,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>60.07073011995545</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>30.80498927785628</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>240.7599018511631</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>164.4070788904127</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3666,10 +3666,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3678,10 +3678,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>54.31661462075001</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>214.5646102646778</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>149.6157531058527</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3900,19 +3900,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>53.1911703338642</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.96684102370116</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3985,16 +3985,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>255.9508505586065</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>275.1106372348596</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>53.1911703338642</v>
       </c>
       <c r="H46" t="n">
-        <v>60.93349615186477</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.813491169114</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="C8" t="n">
-        <v>129.813491169114</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="D8" t="n">
-        <v>129.813491169114</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="E8" t="n">
-        <v>129.813491169114</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585548</v>
+        <v>23.57954741585571</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306557987</v>
+        <v>55.41632306558033</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318062</v>
+        <v>103.131396931807</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183083</v>
+        <v>162.3261653183096</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590914</v>
+        <v>228.1917507590932</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326559</v>
+        <v>295.1231102326582</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336397</v>
+        <v>358.3244950336424</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455639</v>
+        <v>412.2654147455671</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990244979</v>
+        <v>452.7727990245014</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698402</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698402</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698402</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="U8" t="n">
-        <v>356.0488638441229</v>
+        <v>250.1002694948332</v>
       </c>
       <c r="V8" t="n">
-        <v>356.0488638441229</v>
+        <v>129.813491169115</v>
       </c>
       <c r="W8" t="n">
-        <v>356.0488638441229</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="X8" t="n">
-        <v>235.7620855184057</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="Y8" t="n">
-        <v>129.813491169114</v>
+        <v>9.526712843396878</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.526712843396805</v>
+        <v>49.28466765965133</v>
       </c>
       <c r="C9" t="n">
-        <v>9.526712843396805</v>
+        <v>49.28466765965133</v>
       </c>
       <c r="D9" t="n">
-        <v>9.526712843396805</v>
+        <v>49.28466765965133</v>
       </c>
       <c r="E9" t="n">
-        <v>9.526712843396805</v>
+        <v>49.28466765965133</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396805</v>
+        <v>49.28466765965133</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396805</v>
+        <v>49.28466765965133</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="I9" t="n">
-        <v>42.50045791160431</v>
+        <v>16.43678475114683</v>
       </c>
       <c r="J9" t="n">
-        <v>61.46222338483242</v>
+        <v>67.70899752367943</v>
       </c>
       <c r="K9" t="n">
-        <v>93.87090076414812</v>
+        <v>100.1176749029954</v>
       </c>
       <c r="L9" t="n">
-        <v>137.4483669798371</v>
+        <v>143.6951411186847</v>
       </c>
       <c r="M9" t="n">
-        <v>234.2857436973161</v>
+        <v>194.5479887761007</v>
       </c>
       <c r="N9" t="n">
-        <v>352.1788151343516</v>
+        <v>246.7467599936376</v>
       </c>
       <c r="O9" t="n">
-        <v>399.930492940684</v>
+        <v>294.4984377999702</v>
       </c>
       <c r="P9" t="n">
-        <v>438.2554242425458</v>
+        <v>332.8233691018324</v>
       </c>
       <c r="Q9" t="n">
-        <v>463.8746258735207</v>
+        <v>358.4425707328076</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698402</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698402</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="T9" t="n">
-        <v>476.3356421698402</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="U9" t="n">
-        <v>370.3870478205484</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="V9" t="n">
-        <v>250.1002694948313</v>
+        <v>235.7620855184076</v>
       </c>
       <c r="W9" t="n">
-        <v>129.813491169114</v>
+        <v>115.4753071926894</v>
       </c>
       <c r="X9" t="n">
-        <v>9.526712843396805</v>
+        <v>49.28466765965133</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.526712843396805</v>
+        <v>49.28466765965133</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396805</v>
+        <v>342.3502491207277</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396805</v>
+        <v>342.3502491207277</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396805</v>
+        <v>250.1002694948332</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396805</v>
+        <v>250.1002694948332</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396805</v>
+        <v>250.1002694948332</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396805</v>
+        <v>129.813491169115</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011148</v>
+        <v>108.002400301115</v>
       </c>
       <c r="K10" t="n">
-        <v>225.8954717381502</v>
+        <v>225.8954717381513</v>
       </c>
       <c r="L10" t="n">
-        <v>250.9111875026072</v>
+        <v>250.9111875026085</v>
       </c>
       <c r="M10" t="n">
-        <v>277.2867523140621</v>
+        <v>277.2867523140635</v>
       </c>
       <c r="N10" t="n">
-        <v>303.0351651465866</v>
+        <v>303.0351651465882</v>
       </c>
       <c r="O10" t="n">
-        <v>326.8179918988048</v>
+        <v>420.9282365836245</v>
       </c>
       <c r="P10" t="n">
-        <v>444.7110633358403</v>
+        <v>441.2785534804289</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698402</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698402</v>
+        <v>462.6370274464458</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698402</v>
+        <v>342.3502491207277</v>
       </c>
       <c r="T10" t="n">
-        <v>476.3356421698402</v>
+        <v>342.3502491207277</v>
       </c>
       <c r="U10" t="n">
-        <v>356.0488638441229</v>
+        <v>342.3502491207277</v>
       </c>
       <c r="V10" t="n">
-        <v>235.7620855184057</v>
+        <v>342.3502491207277</v>
       </c>
       <c r="W10" t="n">
-        <v>115.4753071926885</v>
+        <v>342.3502491207277</v>
       </c>
       <c r="X10" t="n">
-        <v>9.526712843396805</v>
+        <v>342.3502491207277</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.526712843396805</v>
+        <v>342.3502491207277</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1934.028006962829</v>
+        <v>1111.802223690764</v>
       </c>
       <c r="C11" t="n">
-        <v>1495.885534146253</v>
+        <v>1111.802223690764</v>
       </c>
       <c r="D11" t="n">
-        <v>1059.975749320697</v>
+        <v>1111.802223690764</v>
       </c>
       <c r="E11" t="n">
-        <v>626.2010044789922</v>
+        <v>678.0274788490588</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>250.1600492582665</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447737</v>
+        <v>1538.101794175671</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.327577447737</v>
+        <v>1538.101794175671</v>
       </c>
     </row>
     <row r="12">
@@ -5099,16 +5099,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>807.9003835041292</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C13" t="n">
-        <v>635.3386719873541</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D13" t="n">
-        <v>469.4606791888768</v>
+        <v>280.0598418619694</v>
       </c>
       <c r="E13" t="n">
-        <v>299.7026754396141</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="F13" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H13" t="n">
         <v>110.3018381127067</v>
@@ -5199,25 +5199,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M13" t="n">
-        <v>818.7256495113488</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1514.88554354214</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="C14" t="n">
-        <v>1076.743070725563</v>
+        <v>1006.021337247617</v>
       </c>
       <c r="D14" t="n">
-        <v>744.7955325958366</v>
+        <v>570.1115524220615</v>
       </c>
       <c r="E14" t="n">
-        <v>744.7955325958366</v>
+        <v>570.1115524220615</v>
       </c>
       <c r="F14" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
@@ -5278,7 +5278,7 @@
         <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
         <v>512.3249274228019</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X14" t="n">
-        <v>1941.185114027048</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="Y14" t="n">
-        <v>1941.185114027048</v>
+        <v>1444.163810064194</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
@@ -5354,7 +5354,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.081764785142</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C16" t="n">
-        <v>443.520053268367</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D16" t="n">
-        <v>277.6420604698897</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E16" t="n">
-        <v>223.9136055871985</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
         <v>47.20655154895474</v>
@@ -5442,19 +5442,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>862.082053811994</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>992.6864461505235</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2360.327577447737</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C17" t="n">
-        <v>1922.18510463116</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D17" t="n">
-        <v>1486.275319805604</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E17" t="n">
-        <v>1052.500574963899</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F17" t="n">
-        <v>624.6331453731073</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895473</v>
@@ -5518,16 +5518,16 @@
         <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
         <v>1775.969506973259</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2151.407810917239</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>2151.407810917239</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447737</v>
+        <v>1746.552356328272</v>
       </c>
       <c r="X17" t="n">
-        <v>2360.327577447737</v>
+        <v>1327.409892907583</v>
       </c>
       <c r="Y17" t="n">
-        <v>2360.327577447737</v>
+        <v>919.1237692072363</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>743.6816307030845</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C19" t="n">
-        <v>743.6816307030845</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="D19" t="n">
-        <v>577.8036379046072</v>
+        <v>497.5958522098859</v>
       </c>
       <c r="E19" t="n">
-        <v>408.0456341553444</v>
+        <v>497.5958522098859</v>
       </c>
       <c r="F19" t="n">
-        <v>231.3385801171006</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895473</v>
@@ -5676,22 +5676,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1019.75145377609</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M19" t="n">
-        <v>1150.35584611462</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.854757918509</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
-        <v>1815.289888492053</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2263.565838640078</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5712,13 +5712,13 @@
         <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
-        <v>1408.311674774551</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1162.919920107963</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>935.5002494220716</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1170.282040260527</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="C20" t="n">
-        <v>916.8910812162151</v>
+        <v>1462.576271425268</v>
       </c>
       <c r="D20" t="n">
-        <v>480.9812963906596</v>
+        <v>1026.666486599712</v>
       </c>
       <c r="E20" t="n">
-        <v>47.20655154895473</v>
+        <v>592.8917417580074</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895473</v>
+        <v>592.8917417580074</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>193.3890504374845</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
         <v>1775.969506973259</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X20" t="n">
-        <v>1578.568163960874</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y20" t="n">
-        <v>1170.282040260527</v>
+        <v>1900.718744241844</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965031</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127630994</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>765.0997489345755</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810426</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.0817647851416</v>
+        <v>528.8193777246577</v>
       </c>
       <c r="C22" t="n">
-        <v>443.5200532683665</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="D22" t="n">
-        <v>443.5200532683665</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E22" t="n">
-        <v>273.7620495191038</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F22" t="n">
-        <v>97.05499548085996</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
         <v>47.20655154895473</v>
@@ -5913,22 +5913,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>413.3628026016838</v>
+        <v>828.1746199579902</v>
       </c>
       <c r="M22" t="n">
-        <v>997.5438780199985</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N22" t="n">
-        <v>1567.301592981533</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O22" t="n">
-        <v>2104.736723555076</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2273.065190387253</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>2030.817966290659</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1752.431334339402</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270316</v>
+        <v>1465.475826209833</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856608</v>
+        <v>1193.449421796124</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>948.0576671295366</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041287</v>
+        <v>720.6379964436449</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1128.043535737734</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="C23" t="n">
-        <v>1128.043535737734</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>1050.492529761431</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>1050.492529761431</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001348</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435809</v>
+        <v>276.05327704358</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M23" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
         <v>1775.969506973259</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W23" t="n">
-        <v>1955.47212285877</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X23" t="n">
-        <v>1536.32965943808</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y23" t="n">
-        <v>1128.043535737734</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
         <v>551.5786779960906</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.291841223631</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C25" t="n">
-        <v>919.7301297068562</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D25" t="n">
-        <v>753.852136908379</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E25" t="n">
-        <v>584.0941331591162</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F25" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895473</v>
@@ -6150,16 +6150,16 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>564.2504555545214</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L25" t="n">
-        <v>1106.33113894078</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N25" t="n">
-        <v>1539.854607180194</v>
+        <v>1364.4344430832</v>
       </c>
       <c r="O25" t="n">
         <v>1657.620488527956</v>
@@ -6189,10 +6189,10 @@
         <v>1414.6719023121</v>
       </c>
       <c r="X25" t="n">
-        <v>1414.6719023121</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.110459942618</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1934.028006962829</v>
+        <v>703.5160999904168</v>
       </c>
       <c r="C26" t="n">
-        <v>1495.885534146253</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D26" t="n">
-        <v>1059.975749320697</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E26" t="n">
-        <v>626.2010044789922</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F26" t="n">
-        <v>198.3335748882</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W26" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="X26" t="n">
-        <v>2360.327577447737</v>
+        <v>1538.101794175671</v>
       </c>
       <c r="Y26" t="n">
-        <v>2360.327577447737</v>
+        <v>1129.815670475325</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
         <v>79.1492015823585</v>
@@ -6344,13 +6344,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.081764785142</v>
+        <v>894.468396736399</v>
       </c>
       <c r="C28" t="n">
-        <v>443.520053268367</v>
+        <v>721.9066852196239</v>
       </c>
       <c r="D28" t="n">
-        <v>393.6716093364613</v>
+        <v>556.0286924211466</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871985</v>
+        <v>386.2706886718839</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
         <v>47.20655154895474</v>
@@ -6384,25 +6384,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L28" t="n">
-        <v>744.992999204955</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6417,19 +6417,19 @@
         <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270317</v>
+        <v>1831.124845221574</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856609</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.320054190021</v>
+        <v>1313.706686141278</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041292</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>273.1405267662462</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C29" t="n">
-        <v>273.1405267662462</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D29" t="n">
-        <v>273.1405267662462</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001349</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V29" t="n">
-        <v>1526.86868437219</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W29" t="n">
-        <v>1526.86868437219</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X29" t="n">
-        <v>1107.726220951501</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y29" t="n">
-        <v>699.440097251154</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>919.7301297068562</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C31" t="n">
-        <v>919.7301297068562</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D31" t="n">
-        <v>753.852136908379</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E31" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F31" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G31" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H31" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1106.33113894078</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.355695376305</v>
+        <v>910.9641928553087</v>
       </c>
       <c r="N31" t="n">
-        <v>1539.854607180195</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527957</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675982</v>
+        <v>2118.926094568069</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1856.386578192031</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W31" t="n">
-        <v>1584.360173778323</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1338.968419111735</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.548748425843</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>701.7439652528263</v>
+        <v>1422.719694168253</v>
       </c>
       <c r="C32" t="n">
-        <v>701.7439652528263</v>
+        <v>984.5772213516761</v>
       </c>
       <c r="D32" t="n">
-        <v>701.7439652528263</v>
+        <v>548.6674365261206</v>
       </c>
       <c r="E32" t="n">
-        <v>446.7092428694776</v>
+        <v>548.6674365261206</v>
       </c>
       <c r="F32" t="n">
         <v>446.7092428694776</v>
@@ -6697,16 +6697,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W32" t="n">
-        <v>1955.47212285877</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X32" t="n">
-        <v>1536.329659438081</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y32" t="n">
-        <v>1128.043535737734</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="33">
@@ -6837,43 +6837,43 @@
         <v>616.081764785142</v>
       </c>
       <c r="C34" t="n">
-        <v>443.520053268367</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D34" t="n">
-        <v>277.6420604698897</v>
+        <v>450.2037719866647</v>
       </c>
       <c r="E34" t="n">
-        <v>277.6420604698897</v>
+        <v>280.445768237402</v>
       </c>
       <c r="F34" t="n">
-        <v>100.9350064316459</v>
+        <v>280.445768237402</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>116.6355901513735</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>488.1941452900673</v>
       </c>
       <c r="L34" t="n">
-        <v>744.992999204955</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M34" t="n">
-        <v>1329.17407462327</v>
+        <v>1160.879221014856</v>
       </c>
       <c r="N34" t="n">
-        <v>1898.931789584804</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P34" t="n">
         <v>2274.089213540314</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>635.7574768324197</v>
+        <v>1067.259851166298</v>
       </c>
       <c r="C35" t="n">
-        <v>446.7092428694776</v>
+        <v>1067.259851166298</v>
       </c>
       <c r="D35" t="n">
-        <v>446.7092428694776</v>
+        <v>1067.259851166298</v>
       </c>
       <c r="E35" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6955,7 +6955,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>1889.485634438363</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W35" t="n">
-        <v>1889.485634438363</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X35" t="n">
-        <v>1470.343171017674</v>
+        <v>1067.259851166298</v>
       </c>
       <c r="Y35" t="n">
-        <v>1062.057047317327</v>
+        <v>1067.259851166298</v>
       </c>
     </row>
     <row r="36">
@@ -7077,43 +7077,43 @@
         <v>443.520053268367</v>
       </c>
       <c r="D37" t="n">
-        <v>277.6420604698897</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E37" t="n">
-        <v>107.8840567206269</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895474</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L37" t="n">
-        <v>733.4227107706877</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M37" t="n">
-        <v>1317.603786189002</v>
+        <v>910.964192855309</v>
       </c>
       <c r="N37" t="n">
-        <v>1887.361501150537</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O37" t="n">
-        <v>2005.127382498298</v>
+        <v>2018.157038390387</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2118.92609456807</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1128.043535737734</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="C38" t="n">
-        <v>689.9010629211575</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D38" t="n">
-        <v>689.9010629211575</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E38" t="n">
-        <v>689.9010629211575</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F38" t="n">
         <v>446.7092428694776</v>
@@ -7171,16 +7171,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7192,7 +7192,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W38" t="n">
-        <v>1955.47212285877</v>
+        <v>2153.793451207572</v>
       </c>
       <c r="X38" t="n">
-        <v>1536.329659438081</v>
+        <v>1734.650987786883</v>
       </c>
       <c r="Y38" t="n">
-        <v>1128.043535737734</v>
+        <v>1734.650987786883</v>
       </c>
     </row>
     <row r="39">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.291841223631</v>
+        <v>561.2164974914551</v>
       </c>
       <c r="C40" t="n">
-        <v>919.7301297068562</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>358.0754347909401</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092381</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.85475791851</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2305.46231015405</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2063.215086057457</v>
       </c>
       <c r="U40" t="n">
-        <v>1973.653814855378</v>
+        <v>1784.8284541062</v>
       </c>
       <c r="V40" t="n">
-        <v>1973.653814855378</v>
+        <v>1497.87294597663</v>
       </c>
       <c r="W40" t="n">
-        <v>1756.921885295098</v>
+        <v>1225.846541562922</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.53013062851</v>
+        <v>980.4547868963341</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.110459942618</v>
+        <v>753.0351162104423</v>
       </c>
     </row>
     <row r="41">
@@ -7408,16 +7408,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7438,19 +7438,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X41" t="n">
         <v>2209.200554108492</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.5496021349386</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D43" t="n">
-        <v>393.6716093364613</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="E43" t="n">
-        <v>223.9136055871985</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895474</v>
+        <v>100.9350064316459</v>
       </c>
       <c r="G43" t="n">
         <v>47.20655154895474</v>
@@ -7572,19 +7572,19 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L43" t="n">
-        <v>733.4227107706877</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M43" t="n">
-        <v>1317.603786189002</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N43" t="n">
-        <v>1887.361501150537</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O43" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
         <v>2105.896438675982</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2303.795414797534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>2061.54819070094</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1783.161558749683</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.206050620114</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1224.179646206405</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>978.7878915398176</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.3682208539258</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.483051967699</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>1152.340579151123</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>716.4307943255671</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
         <v>276.0532770435809</v>
@@ -7654,7 +7654,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V44" t="n">
-        <v>1590.483051967699</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W44" t="n">
-        <v>1590.483051967699</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X44" t="n">
-        <v>1590.483051967699</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y44" t="n">
-        <v>1590.483051967699</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
         <v>79.1492015823585</v>
@@ -7766,13 +7766,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7785,19 +7785,19 @@
         <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>616.081764785142</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D46" t="n">
-        <v>450.2037719866647</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="E46" t="n">
-        <v>450.2037719866647</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="F46" t="n">
-        <v>273.496717948421</v>
+        <v>100.9350064316459</v>
       </c>
       <c r="G46" t="n">
-        <v>108.7555375609394</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895474</v>
@@ -7812,19 +7812,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1272.302332591134</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1842.060047552668</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>1959.82592890043</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>32.63681545384276</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>46.44901925258935</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>66.35787900959491</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>106.4970253946634</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>99.33766198190273</v>
+        <v>99.33766198190352</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>95.06085321698777</v>
       </c>
       <c r="P10" t="n">
-        <v>98.52803488912247</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.71219621584692</v>
+        <v>21.17937788798326</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N13" t="n">
-        <v>175.7179764032066</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,16 +9090,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>175.7179764032068</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.62967161639926</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>69.27619576520601</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9804,13 +9804,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>177.1920849464593</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>192.4544649334027</v>
+        <v>177.19208494646</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>177.1920849464602</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>10.62967161639961</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>158.2045317475399</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>45.75904403825086</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>69.27619576520624</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>10.62967161639926</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11223,19 +11223,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>45.75904403825086</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371571</v>
+        <v>177.19208494646</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11460,19 +11460,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P46" t="n">
-        <v>45.75904403825052</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23032,7 +23032,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>304.5048447524243</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.0049566522158</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.1812531179678</v>
+        <v>74.18125311796773</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2079358176206</v>
+        <v>97.12402527515961</v>
       </c>
       <c r="U8" t="n">
-        <v>137.515857400833</v>
+        <v>151.7106595374934</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>239.9068700230508</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>281.7229895006161</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440224</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>299.3141540575443</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23117,7 +23117,7 @@
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809193</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656966</v>
+        <v>59.05530966656963</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>69.67073579184934</v>
+        <v>55.47593365518718</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221616059</v>
+        <v>78.04243221615967</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167788</v>
+        <v>64.38561618167695</v>
       </c>
       <c r="X9" t="n">
-        <v>34.23485086104876</v>
+        <v>87.79002826580113</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -23184,7 +23184,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>72.89173304085701</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -23193,13 +23193,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.7654023385416</v>
+        <v>44.68149179608064</v>
       </c>
       <c r="H10" t="n">
-        <v>136.9920546719889</v>
+        <v>17.90814412952794</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742793</v>
+        <v>82.6621924374279</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616412</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>154.6870177308997</v>
+        <v>35.60310718843873</v>
       </c>
       <c r="T10" t="n">
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>156.5554896577353</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058138</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>150.2222298271113</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>138.0487287141229</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>117.4085828356759</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>194.583701675099</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23317,13 +23317,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>145.3758766889663</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4537745587003</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>102.9226242288703</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>301.4204688378262</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.0487769589426</v>
       </c>
       <c r="E16" t="n">
-        <v>114.8692533779059</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>90.87967246293528</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>89.71112178585926</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.63329813973792</v>
       </c>
       <c r="G19" t="n">
-        <v>111.8236803156196</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>182.903998634542</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>122.3036620418842</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24028,7 +24028,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24135,16 +24135,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>113.7438090910206</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>56.59250992092878</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24211,19 +24211,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>214.5478253185809</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>92.86763721337923</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>145.3425294405766</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>95.88964603324658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>51.03893107289213</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>245.8919113014648</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -24502,16 +24502,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.3808763442455</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>205.7623619281692</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>305.396991767981</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>93.63231361822162</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>167.99138875156</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>176.9526222337725</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>322.6501435748078</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>109.9025982497426</v>
+        <v>125.6718977746357</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>246.6032964650983</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>82.11623112096453</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>114.8692533779059</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>132.2887793057505</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>182.8288534437212</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25453,13 +25453,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>236.3998211526643</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>88.66565849005781</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>54.7415301048936</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>146.9259375451994</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>265.3352856806297</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>109.9025982497426</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>87.01543208710665</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>103.0399300069052</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>129.0926252284835</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>109.9025982497426</v>
       </c>
       <c r="H46" t="n">
-        <v>70.08712386261249</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>89610.27276229148</v>
+        <v>89610.27276229218</v>
       </c>
     </row>
     <row r="5">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>397857.4436034245</v>
+        <v>397857.4436034244</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>397857.4436034244</v>
+        <v>397857.4436034245</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>397857.4436034245</v>
+        <v>397857.4436034244</v>
       </c>
     </row>
     <row r="15">
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>36428.59575072071</v>
+        <v>36428.595750721</v>
       </c>
       <c r="E2" t="n">
         <v>165162.4498658582</v>
@@ -26334,7 +26334,7 @@
         <v>165162.4498658581</v>
       </c>
       <c r="I2" t="n">
-        <v>165162.4498658581</v>
+        <v>165162.4498658582</v>
       </c>
       <c r="J2" t="n">
         <v>165162.4498658582</v>
@@ -26343,19 +26343,19 @@
         <v>165162.4498658581</v>
       </c>
       <c r="L2" t="n">
-        <v>165162.4498658581</v>
+        <v>165162.4498658582</v>
       </c>
       <c r="M2" t="n">
         <v>165162.4498658581</v>
       </c>
       <c r="N2" t="n">
+        <v>165162.4498658582</v>
+      </c>
+      <c r="O2" t="n">
         <v>165162.4498658581</v>
       </c>
-      <c r="O2" t="n">
-        <v>165162.4498658582</v>
-      </c>
       <c r="P2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.467573057</v>
+        <v>117708.4675730579</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.245018045</v>
+        <v>439858.2450180441</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310176</v>
+        <v>30139.06600310202</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597483</v>
+        <v>117374.581559748</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4713.479804066881</v>
+        <v>4713.479804066919</v>
       </c>
       <c r="E4" t="n">
         <v>12946.1632919156</v>
@@ -26435,7 +26435,7 @@
         <v>12946.16329191559</v>
       </c>
       <c r="H4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="I4" t="n">
         <v>12946.16329191559</v>
@@ -26444,16 +26444,16 @@
         <v>12946.1632919156</v>
       </c>
       <c r="K4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191559</v>
       </c>
       <c r="L4" t="n">
         <v>12946.1632919156</v>
       </c>
       <c r="M4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191559</v>
       </c>
       <c r="N4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191559</v>
       </c>
       <c r="O4" t="n">
         <v>12946.1632919156</v>
@@ -26475,7 +26475,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.5622723923</v>
+        <v>42922.56227239237</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963782</v>
@@ -26496,7 +26496,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-128915.9138987955</v>
+        <v>-130082.8126949474</v>
       </c>
       <c r="E6" t="n">
-        <v>-333693.0396537402</v>
+        <v>-334246.9200969613</v>
       </c>
       <c r="F6" t="n">
-        <v>106165.2053643048</v>
+        <v>105611.3249210828</v>
       </c>
       <c r="G6" t="n">
-        <v>106165.2053643047</v>
+        <v>105611.3249210828</v>
       </c>
       <c r="H6" t="n">
-        <v>106165.2053643047</v>
+        <v>105611.3249210827</v>
       </c>
       <c r="I6" t="n">
-        <v>106165.2053643047</v>
+        <v>105611.3249210828</v>
       </c>
       <c r="J6" t="n">
-        <v>106165.2053643047</v>
+        <v>105611.3249210828</v>
       </c>
       <c r="K6" t="n">
-        <v>106165.2053643047</v>
+        <v>105611.3249210828</v>
       </c>
       <c r="L6" t="n">
-        <v>76026.13936120295</v>
+        <v>75472.25891798078</v>
       </c>
       <c r="M6" t="n">
-        <v>-11209.37619544355</v>
+        <v>-11763.25663866525</v>
       </c>
       <c r="N6" t="n">
-        <v>106165.2053643047</v>
+        <v>105611.3249210828</v>
       </c>
       <c r="O6" t="n">
-        <v>106165.2053643048</v>
+        <v>105611.3249210828</v>
       </c>
       <c r="P6" t="n">
-        <v>106165.2053643047</v>
+        <v>105611.3249210828</v>
       </c>
     </row>
   </sheetData>
@@ -26743,22 +26743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480406</v>
+        <v>94.25048217480479</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
         <v>466.7019280932212</v>
@@ -26795,7 +26795,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.08391054246</v>
+        <v>119.083910542461</v>
       </c>
       <c r="E4" t="n">
         <v>590.0818943619342</v>
@@ -26816,7 +26816,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619342</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480406</v>
+        <v>94.25048217480479</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184171</v>
+        <v>372.4514459184164</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.08391054246</v>
+        <v>119.083910542461</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194742</v>
+        <v>470.9979838194733</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424611</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194742</v>
+        <v>470.9979838194733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.08391054246</v>
+        <v>119.083910542461</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194742</v>
+        <v>470.9979838194733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529809</v>
+        <v>0.3788964107529838</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623966</v>
+        <v>3.880372866623996</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555431</v>
+        <v>14.60740387555442</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214584</v>
+        <v>32.15835924214608</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931953</v>
+        <v>48.1970443093199</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990108</v>
+        <v>59.79269533990154</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462941</v>
+        <v>66.53089438462992</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168132</v>
+        <v>67.60743381168183</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725635</v>
+        <v>63.83978262725685</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679213</v>
+        <v>54.48577748679255</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670099</v>
+        <v>40.91654977670131</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196196</v>
+        <v>23.80085166196214</v>
       </c>
       <c r="S8" t="n">
-        <v>8.63410196003356</v>
+        <v>8.634101960033627</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071175</v>
+        <v>1.658619038071187</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023846</v>
+        <v>0.0303117128602387</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250503</v>
+        <v>0.2027274522250518</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857723</v>
+        <v>1.957920393857738</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888792</v>
+        <v>6.979870613888846</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780618</v>
+        <v>19.15329845780632</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688454</v>
+        <v>32.73603775688479</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211015</v>
+        <v>44.01764264211049</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526821</v>
+        <v>51.3665127852686</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286516</v>
+        <v>52.72603153286556</v>
       </c>
       <c r="O9" t="n">
-        <v>48.2340179861943</v>
+        <v>48.23401798619467</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006245</v>
+        <v>38.71205182006275</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542922</v>
+        <v>25.87798144542942</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779742</v>
+        <v>12.58688514779752</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531084</v>
+        <v>3.765573509531114</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457066</v>
+        <v>0.817133897345713</v>
       </c>
       <c r="U9" t="n">
-        <v>0.013337332383227</v>
+        <v>0.0133373323832271</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889909</v>
+        <v>0.1699598858889922</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540302</v>
+        <v>1.511097894540314</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643474</v>
+        <v>5.111157295643513</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235166</v>
+        <v>12.01616393235175</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055731</v>
+        <v>19.74624856055745</v>
       </c>
       <c r="L10" t="n">
-        <v>25.2683997620778</v>
+        <v>25.26839976207799</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803518</v>
+        <v>26.64198465803539</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063078</v>
+        <v>26.00849781063098</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547302</v>
+        <v>24.0230573254732</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333758</v>
+        <v>20.55587565333774</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839541</v>
+        <v>14.23182280839552</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517717</v>
+        <v>7.642014505517776</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083595</v>
+        <v>2.961937284083618</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075065</v>
+        <v>0.726192239707512</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308607</v>
+        <v>0.009270539230308678</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916796</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S24" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207638</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,10 +33019,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -33031,7 +33031,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H28" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,10 +33125,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,19 +33256,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -33286,16 +33286,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T30" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H31" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,10 +33362,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417549</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,7 +33493,7 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I33" t="n">
         <v>34.56235976916781</v>
@@ -33505,7 +33505,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -33523,16 +33523,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T33" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H34" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,10 +33599,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417549</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,10 +33730,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -33742,7 +33742,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -33754,22 +33754,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T36" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H37" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,10 +33836,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417549</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33906,7 +33906,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,10 +33967,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -33979,7 +33979,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -33997,16 +33997,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H40" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,10 +34073,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
@@ -34085,7 +34085,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,10 +34204,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34216,7 +34216,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -34234,16 +34234,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H43" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,10 +34310,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642291</v>
+        <v>14.19478239642302</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214584</v>
+        <v>32.15835924214608</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931953</v>
+        <v>48.19704430931991</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990109</v>
+        <v>59.79269533990154</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462942</v>
+        <v>66.53089438462993</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168132</v>
+        <v>67.60743381168183</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725634</v>
+        <v>63.83978262725685</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679213</v>
+        <v>54.48577748679253</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.916549776701</v>
+        <v>40.91654977670129</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196193</v>
+        <v>23.80085166196216</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.3068132002096</v>
+        <v>6.979870613888846</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780617</v>
+        <v>51.79011391164909</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688454</v>
+        <v>32.73603775688478</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211015</v>
+        <v>44.01764264211049</v>
       </c>
       <c r="M9" t="n">
-        <v>97.81553203785757</v>
+        <v>51.36651278526861</v>
       </c>
       <c r="N9" t="n">
-        <v>119.08391054246</v>
+        <v>52.72603153286556</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619432</v>
+        <v>48.23401798619466</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006247</v>
+        <v>38.71205182006275</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542921</v>
+        <v>25.87798144542944</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779743</v>
+        <v>119.083910542461</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143233</v>
+        <v>99.47039137143241</v>
       </c>
       <c r="K10" t="n">
-        <v>119.08391054246</v>
+        <v>119.083910542461</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207779</v>
+        <v>25.26839976207799</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803517</v>
+        <v>26.64198465803537</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063079</v>
+        <v>26.00849781063096</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547302</v>
+        <v>119.083910542461</v>
       </c>
       <c r="P10" t="n">
-        <v>119.08391054246</v>
+        <v>20.55587565333775</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.94401902424232</v>
+        <v>35.41120069637878</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -35418,13 +35418,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>304.5047560030951</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,13 +35643,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766673</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916785</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35810,22 +35810,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>300.8399982398713</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36044,25 +36044,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447059</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485105</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.10166275847587</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36135,7 +36135,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36220,10 +36220,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>266.5900650540088</v>
       </c>
       <c r="M22" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>171.0631211972095</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,25 +36354,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L23" t="n">
-        <v>296.076641276667</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916796</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36518,28 +36518,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>375.3116718572666</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M25" t="n">
-        <v>309.1157135712365</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512694</v>
       </c>
       <c r="P25" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36676,10 +36676,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L28" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>324.3780935581799</v>
+        <v>309.1157135712372</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36837,7 +36837,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36910,7 +36910,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>309.1157135712374</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>227.2024143463632</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,16 +37068,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37089,7 +37089,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
         <v>117.855135640546</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>70.13034202264521</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L34" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>277.1599674523497</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
         <v>70.4719911420766</v>
@@ -37305,31 +37305,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766676</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L37" t="n">
-        <v>170.8810658749154</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>227.2024143463632</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,31 +37542,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766676</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K40" t="n">
-        <v>167.0540751263761</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447063</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247774</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847587</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37788,7 +37788,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37876,13 +37876,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L43" t="n">
-        <v>170.8810658749154</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712372</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
         <v>240.36368292423</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38037,7 +38037,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.855135640546</v>
@@ -38180,22 +38180,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P46" t="n">
-        <v>147.545969470254</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
